--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.7058229744011</v>
+        <v>253.8640242421226</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.7159320809237</v>
+        <v>347.3479576582242</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.6342711947071</v>
+        <v>314.1975560853473</v>
       </c>
       <c r="AD2" t="n">
-        <v>222705.8229744011</v>
+        <v>253864.0242421225</v>
       </c>
       <c r="AE2" t="n">
-        <v>304715.9320809236</v>
+        <v>347347.9576582242</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.120479575094573e-06</v>
+        <v>5.275325548039447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.493055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>275634.2711947071</v>
+        <v>314197.5560853473</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.1106771846596</v>
+        <v>136.8543942478004</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.8677509655364</v>
+        <v>187.2502197995203</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.7056357857182</v>
+        <v>169.3793216292409</v>
       </c>
       <c r="AD3" t="n">
-        <v>116110.6771846596</v>
+        <v>136854.3942478004</v>
       </c>
       <c r="AE3" t="n">
-        <v>158867.7509655364</v>
+        <v>187250.2197995203</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.827770865567295e-06</v>
+        <v>8.161586183891561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.197048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>143705.6357857182</v>
+        <v>169379.3216292409</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.95535464965563</v>
+        <v>129.0281255542544</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.0268377168549</v>
+        <v>176.5419737024094</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.2355044330422</v>
+        <v>159.693055510517</v>
       </c>
       <c r="AD4" t="n">
-        <v>97955.35464965564</v>
+        <v>129028.1255542545</v>
       </c>
       <c r="AE4" t="n">
-        <v>134026.8377168549</v>
+        <v>176541.9737024094</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.089289125690565e-06</v>
+        <v>8.60369577817253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.982204861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>121235.5044330422</v>
+        <v>159693.055510517</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.8458801910156</v>
+        <v>188.9469915220034</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.3399410628991</v>
+        <v>258.5256095532446</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.5973221264414</v>
+        <v>233.8522882205303</v>
       </c>
       <c r="AD2" t="n">
-        <v>158845.8801910156</v>
+        <v>188946.9915220034</v>
       </c>
       <c r="AE2" t="n">
-        <v>217339.9410628991</v>
+        <v>258525.6095532447</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.858798098732393e-06</v>
+        <v>6.68263184707762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.431857638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>196597.3221264414</v>
+        <v>233852.2882205303</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.884170380437</v>
+        <v>123.9800547221364</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.1389049605958</v>
+        <v>169.6349804847415</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.573367364401</v>
+        <v>153.4452560315152</v>
       </c>
       <c r="AD3" t="n">
-        <v>103884.170380437</v>
+        <v>123980.0547221364</v>
       </c>
       <c r="AE3" t="n">
-        <v>142138.9049605958</v>
+        <v>169634.9804847415</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.166667167988884e-06</v>
+        <v>8.947587740181296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.055989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>128573.3673644009</v>
+        <v>153445.2560315153</v>
       </c>
     </row>
   </sheetData>
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.79622397160971</v>
+        <v>123.0569799551838</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.0726198690311</v>
+        <v>168.371988865413</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.563232990343</v>
+        <v>152.3028025597152</v>
       </c>
       <c r="AD2" t="n">
-        <v>95796.22397160971</v>
+        <v>123056.9799551838</v>
       </c>
       <c r="AE2" t="n">
-        <v>131072.6198690311</v>
+        <v>168371.988865413</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.025582958176125e-06</v>
+        <v>9.509484410656552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.654947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>118563.232990343</v>
+        <v>152302.8025597152</v>
       </c>
     </row>
   </sheetData>
@@ -3011,28 +3011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.96421258451281</v>
+        <v>116.8722227964369</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.0389575341109</v>
+        <v>159.9097312685908</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.2464675519496</v>
+        <v>144.648170951078</v>
       </c>
       <c r="AD2" t="n">
-        <v>97964.2125845128</v>
+        <v>116872.2227964369</v>
       </c>
       <c r="AE2" t="n">
-        <v>134038.9575341109</v>
+        <v>159909.7312685908</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.157962477551363e-06</v>
+        <v>9.396687454731891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.338107638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>121246.4675519496</v>
+        <v>144648.1709510779</v>
       </c>
     </row>
     <row r="3">
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.59625011849232</v>
+        <v>116.5042603304164</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.5354950547436</v>
+        <v>159.4062687892235</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.7910548249989</v>
+        <v>144.1927582241273</v>
       </c>
       <c r="AD3" t="n">
-        <v>97596.25011849232</v>
+        <v>116504.2603304164</v>
       </c>
       <c r="AE3" t="n">
-        <v>133535.4950547436</v>
+        <v>159406.2687892235</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.185491681995177e-06</v>
+        <v>9.446839686579602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.314236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>120791.0548249989</v>
+        <v>144192.7582241273</v>
       </c>
     </row>
   </sheetData>
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.8853712139599</v>
+        <v>123.4907606566453</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.8770362277703</v>
+        <v>168.9655067582063</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.0501752264286</v>
+        <v>152.8396759378281</v>
       </c>
       <c r="AD2" t="n">
-        <v>105885.3712139599</v>
+        <v>123490.7606566453</v>
       </c>
       <c r="AE2" t="n">
-        <v>144877.0362277703</v>
+        <v>168965.5067582063</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.72642070853813e-06</v>
+        <v>9.262261733772039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>131050.1752264286</v>
+        <v>152839.6759378281</v>
       </c>
     </row>
   </sheetData>
@@ -3711,28 +3711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.4496814711516</v>
+        <v>200.9768009411994</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.2167738979558</v>
+        <v>274.9853255183158</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.9588923190003</v>
+        <v>248.7411119952567</v>
       </c>
       <c r="AD2" t="n">
-        <v>170449.6814711516</v>
+        <v>200976.8009411994</v>
       </c>
       <c r="AE2" t="n">
-        <v>233216.7738979558</v>
+        <v>274985.3255183158</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.660360897865608e-06</v>
+        <v>6.297582136674408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.674913194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>210958.8923190003</v>
+        <v>248741.1119952567</v>
       </c>
     </row>
     <row r="3">
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.0498042094411</v>
+        <v>125.3159658434524</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.7337765895737</v>
+        <v>171.4628330171644</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.0160266835261</v>
+        <v>155.0986608836515</v>
       </c>
       <c r="AD3" t="n">
-        <v>105049.8042094412</v>
+        <v>125315.9658434524</v>
       </c>
       <c r="AE3" t="n">
-        <v>143733.7765895737</v>
+        <v>171462.8330171644</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.143610616056175e-06</v>
+        <v>8.849485402538444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.038628472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>130016.0266835261</v>
+        <v>155098.6608836515</v>
       </c>
     </row>
     <row r="4">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.8235008843062</v>
+        <v>125.0896625183175</v>
       </c>
       <c r="AB4" t="n">
-        <v>143.4241383963262</v>
+        <v>171.1531948239168</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.735939924862</v>
+        <v>154.8185741249874</v>
       </c>
       <c r="AD4" t="n">
-        <v>104823.5008843062</v>
+        <v>125089.6625183175</v>
       </c>
       <c r="AE4" t="n">
-        <v>143424.1383963262</v>
+        <v>171153.1948239168</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.163041417088227e-06</v>
+        <v>8.882915730556668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.0234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>129735.939924862</v>
+        <v>154818.5741249874</v>
       </c>
     </row>
   </sheetData>
@@ -4220,28 +4220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.5061455966164</v>
+        <v>133.3585720453798</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.0946512416391</v>
+        <v>182.46708163738</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.0561441758166</v>
+        <v>165.0526794601171</v>
       </c>
       <c r="AD2" t="n">
-        <v>107506.1455966164</v>
+        <v>133358.5720453798</v>
       </c>
       <c r="AE2" t="n">
-        <v>147094.6512416391</v>
+        <v>182467.08163738</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.475065086821531e-06</v>
+        <v>8.970985662284599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>133056.1441758166</v>
+        <v>165052.6794601171</v>
       </c>
     </row>
   </sheetData>
@@ -4517,28 +4517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0379508724831</v>
+        <v>147.395365250856</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.5047318505296</v>
+        <v>201.6728413607138</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.0909469160743</v>
+        <v>182.4254684309152</v>
       </c>
       <c r="AD2" t="n">
-        <v>118037.9508724831</v>
+        <v>147395.365250856</v>
       </c>
       <c r="AE2" t="n">
-        <v>161504.7318505296</v>
+        <v>201672.8413607139</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.548059112041652e-06</v>
+        <v>8.054950639598817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.748263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>146090.9469160743</v>
+        <v>182425.4684309152</v>
       </c>
     </row>
     <row r="3">
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.2555377662675</v>
+        <v>119.7987899088766</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.1740497339189</v>
+        <v>163.9139895028576</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.0823509523384</v>
+        <v>148.2702683994793</v>
       </c>
       <c r="AD3" t="n">
-        <v>100255.5377662675</v>
+        <v>119798.7899088766</v>
       </c>
       <c r="AE3" t="n">
-        <v>137174.0497339189</v>
+        <v>163913.9895028576</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.215097167049316e-06</v>
+        <v>9.236324600547351e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>124082.3509523384</v>
+        <v>148270.2683994793</v>
       </c>
     </row>
   </sheetData>
@@ -4920,28 +4920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.7696238045706</v>
+        <v>168.7740967007727</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.5531625419138</v>
+        <v>230.9241648935417</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.1263343976294</v>
+        <v>208.8850867002697</v>
       </c>
       <c r="AD2" t="n">
-        <v>148769.6238045706</v>
+        <v>168774.0967007727</v>
       </c>
       <c r="AE2" t="n">
-        <v>203553.1625419138</v>
+        <v>230924.1648935417</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.054185852388036e-06</v>
+        <v>7.070146118281784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.219184027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>184126.3343976294</v>
+        <v>208885.0867002697</v>
       </c>
     </row>
     <row r="3">
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.6368359721126</v>
+        <v>122.555968013743</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.4322469946168</v>
+        <v>167.6864822240471</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.0295904393849</v>
+        <v>151.6827197100865</v>
       </c>
       <c r="AD3" t="n">
-        <v>102636.8359721126</v>
+        <v>122555.968013743</v>
       </c>
       <c r="AE3" t="n">
-        <v>140432.2469946168</v>
+        <v>167686.4822240471</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.184833739456137e-06</v>
+        <v>9.041897306054645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>127029.5904393849</v>
+        <v>151682.7197100865</v>
       </c>
     </row>
   </sheetData>
@@ -5323,28 +5323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.3981452210128</v>
+        <v>238.3251698465399</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.7712920516681</v>
+        <v>326.0870115483246</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.6885582138501</v>
+        <v>294.9657248322446</v>
       </c>
       <c r="AD2" t="n">
-        <v>207398.1452210128</v>
+        <v>238325.1698465399</v>
       </c>
       <c r="AE2" t="n">
-        <v>283771.292051668</v>
+        <v>326087.0115483246</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.291581365756107e-06</v>
+        <v>5.595470167692052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.204427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>256688.55821385</v>
+        <v>294965.7248322446</v>
       </c>
     </row>
     <row r="3">
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.3584143540291</v>
+        <v>131.948013655707</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.3654953056316</v>
+        <v>180.5370934191863</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.8239462800195</v>
+        <v>163.3068866087118</v>
       </c>
       <c r="AD3" t="n">
-        <v>111358.4143540291</v>
+        <v>131948.013655707</v>
       </c>
       <c r="AE3" t="n">
-        <v>152365.4953056316</v>
+        <v>180537.0934191863</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.964711702293978e-06</v>
+        <v>8.439680850786528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>137823.9462800195</v>
+        <v>163306.8866087118</v>
       </c>
     </row>
     <row r="4">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.82157966005805</v>
+        <v>127.6631739224624</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.4755567574658</v>
+        <v>174.6743866623764</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.8322755511802</v>
+        <v>158.0037083564093</v>
       </c>
       <c r="AD4" t="n">
-        <v>96821.57966005805</v>
+        <v>127663.1739224624</v>
       </c>
       <c r="AE4" t="n">
-        <v>132475.5567574658</v>
+        <v>174674.3866623764</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.119244271345345e-06</v>
+        <v>8.702375976314773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.988715277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>119832.2755511802</v>
+        <v>158003.7083564093</v>
       </c>
     </row>
   </sheetData>
@@ -5832,28 +5832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3990334548645</v>
+        <v>121.5300748311516</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.1068750994115</v>
+        <v>166.2828099124134</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.7352715811956</v>
+        <v>150.4130119138081</v>
       </c>
       <c r="AD2" t="n">
-        <v>102399.0334548645</v>
+        <v>121530.0748311516</v>
       </c>
       <c r="AE2" t="n">
-        <v>140106.8750994115</v>
+        <v>166282.8099124134</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.020101539864374e-06</v>
+        <v>9.052431032915041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126735.2715811956</v>
+        <v>150413.0119138081</v>
       </c>
     </row>
     <row r="3">
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.6941403520437</v>
+        <v>117.8251817283308</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.0376769077866</v>
+        <v>161.2136117207884</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.1498705503134</v>
+        <v>145.8276108829259</v>
       </c>
       <c r="AD3" t="n">
-        <v>98694.1403520437</v>
+        <v>117825.1817283308</v>
       </c>
       <c r="AE3" t="n">
-        <v>135037.6769077866</v>
+        <v>161213.6117207884</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.195325544044526e-06</v>
+        <v>9.368401377450124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>122149.8705503134</v>
+        <v>145827.6108829259</v>
       </c>
     </row>
   </sheetData>
@@ -6235,28 +6235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.10457090415744</v>
+        <v>114.6933527576813</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.4945137454492</v>
+        <v>156.9285051566049</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.9448619073277</v>
+        <v>141.9514688750419</v>
       </c>
       <c r="AD2" t="n">
-        <v>96104.57090415744</v>
+        <v>114693.3527576813</v>
       </c>
       <c r="AE2" t="n">
-        <v>131494.5137454493</v>
+        <v>156928.5051566049</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.103815427560702e-06</v>
+        <v>9.52208819029132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.509548611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>118944.8619073277</v>
+        <v>141951.4688750419</v>
       </c>
     </row>
   </sheetData>
@@ -10313,28 +10313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.10213519663544</v>
+        <v>122.9172622815416</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.4911811029619</v>
+        <v>168.180820980427</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.9418473275619</v>
+        <v>152.1298794693664</v>
       </c>
       <c r="AD2" t="n">
-        <v>96102.13519663544</v>
+        <v>122917.2622815416</v>
       </c>
       <c r="AE2" t="n">
-        <v>131491.1811029619</v>
+        <v>168180.820980427</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898632912864404e-06</v>
+        <v>9.420252750419731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>118941.8473275619</v>
+        <v>152129.8794693665</v>
       </c>
     </row>
   </sheetData>
@@ -10610,28 +10610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.8049704559887</v>
+        <v>145.9259193602757</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.2906901169686</v>
+        <v>199.6622806658455</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.5155786391914</v>
+        <v>180.6067928269248</v>
       </c>
       <c r="AD2" t="n">
-        <v>120804.9704559887</v>
+        <v>145925.9193602757</v>
       </c>
       <c r="AE2" t="n">
-        <v>165290.6901169686</v>
+        <v>199662.2806658455</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.042974565074707e-06</v>
+        <v>8.339036594209919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.321614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>149515.5786391914</v>
+        <v>180606.7928269248</v>
       </c>
     </row>
   </sheetData>
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.6453757039266</v>
+        <v>157.2907127599167</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.6500343545737</v>
+        <v>215.2120923745258</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.9816801986846</v>
+        <v>194.6725523304314</v>
       </c>
       <c r="AD2" t="n">
-        <v>127645.3757039266</v>
+        <v>157290.7127599167</v>
       </c>
       <c r="AE2" t="n">
-        <v>174650.0343545737</v>
+        <v>215212.0923745258</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.302345502197356e-06</v>
+        <v>7.559051329400282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>157981.6801986846</v>
+        <v>194672.5523304314</v>
       </c>
     </row>
     <row r="3">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.564336972173</v>
+        <v>121.299537566527</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.9648065475838</v>
+        <v>165.9673786563677</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.7022004490507</v>
+        <v>150.1276849741288</v>
       </c>
       <c r="AD3" t="n">
-        <v>101564.336972173</v>
+        <v>121299.537566527</v>
       </c>
       <c r="AE3" t="n">
-        <v>138964.8065475838</v>
+        <v>165967.3786563677</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.20232342672256e-06</v>
+        <v>9.140277040663739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.108072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>125702.2004490507</v>
+        <v>150127.6849741288</v>
       </c>
     </row>
   </sheetData>
@@ -11310,28 +11310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.8609792851529</v>
+        <v>213.6346996023991</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.1984591148795</v>
+        <v>292.3044208936377</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.319869332771</v>
+        <v>264.4072972154664</v>
       </c>
       <c r="AD2" t="n">
-        <v>182860.9792851529</v>
+        <v>213634.6996023991</v>
       </c>
       <c r="AE2" t="n">
-        <v>250198.4591148795</v>
+        <v>292304.4208936376</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.476960665562645e-06</v>
+        <v>5.945215257286417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.922309027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>226319.869332771</v>
+        <v>264407.2972154664</v>
       </c>
     </row>
     <row r="3">
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.2841937298231</v>
+        <v>127.7147559286334</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.7909669056674</v>
+        <v>174.7449634388569</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.7814430466463</v>
+        <v>158.0675493843977</v>
       </c>
       <c r="AD3" t="n">
-        <v>107284.1937298231</v>
+        <v>127714.7559286334</v>
       </c>
       <c r="AE3" t="n">
-        <v>146790.9669056674</v>
+        <v>174744.9634388569</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.085909030317412e-06</v>
+        <v>8.696337655957029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.049479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>132781.4430466463</v>
+        <v>158067.5493843977</v>
       </c>
     </row>
     <row r="4">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.1549469829355</v>
+        <v>126.5855091817458</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.2458816877261</v>
+        <v>173.1998782209157</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.3838185933642</v>
+        <v>156.6699249311155</v>
       </c>
       <c r="AD4" t="n">
-        <v>106154.9469829355</v>
+        <v>126585.5091817458</v>
       </c>
       <c r="AE4" t="n">
-        <v>145245.8816877261</v>
+        <v>173199.8782209157</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.138196293601392e-06</v>
+        <v>8.785743049154759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.008246527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>131383.8185933642</v>
+        <v>156669.9249311155</v>
       </c>
     </row>
   </sheetData>
@@ -11819,28 +11819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.959790904781</v>
+        <v>180.4787515293734</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.4991605060305</v>
+        <v>246.9389900029525</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.2227493981488</v>
+        <v>223.3714793781916</v>
       </c>
       <c r="AD2" t="n">
-        <v>139959.790904781</v>
+        <v>180478.7515293734</v>
       </c>
       <c r="AE2" t="n">
-        <v>191499.1605060305</v>
+        <v>246938.9900029525</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.323942422528258e-06</v>
+        <v>7.124739587652179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.960069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>173222.7493981488</v>
+        <v>223371.4793781916</v>
       </c>
     </row>
   </sheetData>
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.86902750394708</v>
+        <v>115.540264108085</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.5404769907259</v>
+        <v>158.0872866293186</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.8909998884941</v>
+        <v>142.9996578703602</v>
       </c>
       <c r="AD2" t="n">
-        <v>96869.02750394709</v>
+        <v>115540.264108085</v>
       </c>
       <c r="AE2" t="n">
-        <v>132540.4769907259</v>
+        <v>158087.2866293186</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.142400407224139e-06</v>
+        <v>9.47452581880195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>119890.9998884941</v>
+        <v>142999.6578703602</v>
       </c>
     </row>
     <row r="3">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.95431001381814</v>
+        <v>115.6255466179561</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.6571642831302</v>
+        <v>158.2039739217229</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.996550709483</v>
+        <v>143.1052086913491</v>
       </c>
       <c r="AD3" t="n">
-        <v>96954.31001381815</v>
+        <v>115625.5466179561</v>
       </c>
       <c r="AE3" t="n">
-        <v>132657.1642831302</v>
+        <v>158203.9739217229</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.155882434143331e-06</v>
+        <v>9.499365543837018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.398871527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>119996.550709483</v>
+        <v>143105.2086913491</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.1587670939749</v>
+        <v>128.671636430351</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.3558408828387</v>
+        <v>176.0542095558947</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.1015290512604</v>
+        <v>159.2518428895642</v>
       </c>
       <c r="AD2" t="n">
-        <v>109158.7670939749</v>
+        <v>128671.636430351</v>
       </c>
       <c r="AE2" t="n">
-        <v>149355.8408828387</v>
+        <v>176054.2095558947</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.810660964101678e-06</v>
+        <v>8.59389473860206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>135101.5290512604</v>
+        <v>159251.8428895642</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.54373758589233</v>
+        <v>118.8860147216762</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.2001333247223</v>
+        <v>162.6650902229315</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.201383758335</v>
+        <v>147.1405623139877</v>
       </c>
       <c r="AD3" t="n">
-        <v>99543.73758589233</v>
+        <v>118886.0147216762</v>
       </c>
       <c r="AE3" t="n">
-        <v>136200.1333247223</v>
+        <v>162665.0902229315</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.204094927782942e-06</v>
+        <v>9.296735802584449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.197048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>123201.383758335</v>
+        <v>147140.5623139878</v>
       </c>
     </row>
   </sheetData>
